--- a/data/trans_orig/P51_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P51_2-Habitat-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6837</v>
+        <v>5718</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009682094278342795</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05778291830427654</v>
+        <v>0.04831837601416068</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4954</v>
+        <v>5629</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02897228955321771</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1375643139127126</v>
+        <v>0.1563257256812793</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7571</v>
+        <v>7711</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01418280202535719</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04905307967230525</v>
+        <v>0.04996120540586143</v>
       </c>
     </row>
     <row r="5">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4296</v>
+        <v>5112</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02791510832260506</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1193008026514621</v>
+        <v>0.1419677125508273</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4673</v>
+        <v>5008</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006513036415444446</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03027995371270905</v>
+        <v>0.03244470603574849</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>2775</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7388</v>
+        <v>7882</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02345175047208237</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006934820762421621</v>
+        <v>0.007062895159067079</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06243925176113599</v>
+        <v>0.06660857586768193</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -910,19 +910,19 @@
         <v>2775</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7993</v>
+        <v>7854</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01798008605776586</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00547124919862529</v>
+        <v>0.005475069647094931</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05178859262592192</v>
+        <v>0.05088563683395404</v>
       </c>
     </row>
     <row r="7">
@@ -939,19 +939,19 @@
         <v>114409</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109017</v>
+        <v>108742</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117447</v>
+        <v>117191</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9668661552495749</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9212995353702649</v>
+        <v>0.9189690000332332</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9925390251289196</v>
+        <v>0.9903708131913461</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -960,7 +960,7 @@
         <v>33961</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29729</v>
+        <v>29542</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>36010</v>
@@ -969,7 +969,7 @@
         <v>0.9431126021241772</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8255764069590162</v>
+        <v>0.8203879519479053</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -981,19 +981,19 @@
         <v>148371</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>141972</v>
+        <v>142014</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>151753</v>
+        <v>152274</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9613240755014325</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9198645726536643</v>
+        <v>0.920138689236686</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9832367113738936</v>
+        <v>0.9866153453936812</v>
       </c>
     </row>
     <row r="8">
@@ -1085,19 +1085,19 @@
         <v>7345</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3131</v>
+        <v>3168</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13785</v>
+        <v>14753</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03497268586816962</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01490992096460923</v>
+        <v>0.0150852775198631</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06564085522817706</v>
+        <v>0.07024746755932378</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -1106,19 +1106,19 @@
         <v>10318</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4386</v>
+        <v>4624</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18161</v>
+        <v>19229</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1265171622911758</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05377908966980807</v>
+        <v>0.0567036849932697</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2226857397094779</v>
+        <v>0.2357769572697914</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -1127,19 +1127,19 @@
         <v>17663</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9786</v>
+        <v>9894</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28330</v>
+        <v>28093</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06057851727747127</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03356526512897504</v>
+        <v>0.0339350631476352</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09716625048759669</v>
+        <v>0.0963532368023276</v>
       </c>
     </row>
     <row r="10">
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5844</v>
+        <v>5485</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004649968469970308</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02782865564472212</v>
+        <v>0.02611843521483646</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4935</v>
+        <v>4871</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003349329552659232</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01692646284692633</v>
+        <v>0.01670534694569193</v>
       </c>
     </row>
     <row r="11">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7685</v>
+        <v>6312</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009652522476557799</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03659162521113726</v>
+        <v>0.03005464849876546</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5423</v>
+        <v>5091</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01297791530512018</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06649697147000555</v>
+        <v>0.06242009328755908</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1261,19 +1261,19 @@
         <v>3086</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8241</v>
+        <v>8895</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01058266541324808</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003329359151968649</v>
+        <v>0.003342507906994315</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0282629181525134</v>
+        <v>0.03050833901155759</v>
       </c>
     </row>
     <row r="12">
@@ -1290,19 +1290,19 @@
         <v>199664</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>191776</v>
+        <v>191040</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>204955</v>
+        <v>204065</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9507248231853023</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9131653834395012</v>
+        <v>0.9096633685606269</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9759194684240364</v>
+        <v>0.9716845045199469</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>63</v>
@@ -1311,19 +1311,19 @@
         <v>70178</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>61624</v>
+        <v>61701</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>76176</v>
+        <v>76078</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.860504922403704</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7556273179387605</v>
+        <v>0.7565696702084257</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9340527847483299</v>
+        <v>0.9328517912176354</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>247</v>
@@ -1332,19 +1332,19 @@
         <v>269841</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>256626</v>
+        <v>258758</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>278052</v>
+        <v>278339</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9254894877566214</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8801626753204955</v>
+        <v>0.8874752010850786</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9536490209854637</v>
+        <v>0.954633033473957</v>
       </c>
     </row>
     <row r="13">
@@ -1436,19 +1436,19 @@
         <v>4902</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12187</v>
+        <v>13016</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02985543932371524</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006107144227303149</v>
+        <v>0.006005361640459447</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0742201082346144</v>
+        <v>0.07926673974856012</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6880</v>
+        <v>6801</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02719734251420651</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09431356807624147</v>
+        <v>0.09322938023934414</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1478,19 +1478,19 @@
         <v>6886</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2918</v>
+        <v>2866</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16276</v>
+        <v>15985</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02903781644566746</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01230575398768544</v>
+        <v>0.01208544249459302</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06862942596475136</v>
+        <v>0.06740551464223925</v>
       </c>
     </row>
     <row r="15">
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6620</v>
+        <v>6197</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01638729959197159</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09075226693260049</v>
+        <v>0.08495487690862943</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5015</v>
+        <v>5892</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.005040685880171281</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02114527934939937</v>
+        <v>0.02484343370512804</v>
       </c>
     </row>
     <row r="16">
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7358</v>
+        <v>6858</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0123774074084172</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04481052428302436</v>
+        <v>0.04176235859641254</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5024</v>
+        <v>5833</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01346584576415509</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06887383725105246</v>
+        <v>0.07996533198750451</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1612,19 +1612,19 @@
         <v>3015</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8279</v>
+        <v>9391</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01271220789341552</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003983506702314319</v>
+        <v>0.003992091132542468</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03490933729362829</v>
+        <v>0.03959816965351304</v>
       </c>
     </row>
     <row r="17">
@@ -1641,19 +1641,19 @@
         <v>157269</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>149903</v>
+        <v>148858</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>161329</v>
+        <v>161320</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9577671532678675</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9129092774639791</v>
+        <v>0.9065447370629637</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9824924951945396</v>
+        <v>0.982433848739684</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -1662,19 +1662,19 @@
         <v>68785</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>63322</v>
+        <v>63397</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71932</v>
+        <v>71937</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9429495121296668</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.868058132714162</v>
+        <v>0.869086443294388</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9860811987623728</v>
+        <v>0.9861512405275717</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>208</v>
@@ -1683,19 +1683,19 @@
         <v>226055</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>216694</v>
+        <v>216424</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>231242</v>
+        <v>231951</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9532092897807457</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9137393079347167</v>
+        <v>0.9126020699060475</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.975083322366821</v>
+        <v>0.9780723184759814</v>
       </c>
     </row>
     <row r="18">
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12399</v>
+        <v>11668</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01104609878484402</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06264454038577097</v>
+        <v>0.05895006251315933</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4656</v>
+        <v>5237</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01011140047897776</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04788516845206891</v>
+        <v>0.05386743315710082</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11611</v>
+        <v>10831</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0107382000275103</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0393393946153635</v>
+        <v>0.03669655451209219</v>
       </c>
     </row>
     <row r="20">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6509</v>
+        <v>6430</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009175344349557846</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03288774159085381</v>
+        <v>0.03248819505931054</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6030</v>
+        <v>7089</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01193958462889785</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06202425065939174</v>
+        <v>0.07291501066396314</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -1900,19 +1900,19 @@
         <v>2977</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8027</v>
+        <v>8666</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01008591211419265</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002971429193738535</v>
+        <v>0.002940329059574183</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0271971396933883</v>
+        <v>0.02936250202855357</v>
       </c>
     </row>
     <row r="21">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6170</v>
+        <v>5886</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.009643243732201505</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03117386089760339</v>
+        <v>0.02973899232587004</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6582</v>
+        <v>6628</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.006466664997462919</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02230039019046006</v>
+        <v>0.02245753539644059</v>
       </c>
     </row>
     <row r="22">
@@ -1992,19 +1992,19 @@
         <v>192015</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>182779</v>
+        <v>183319</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>195193</v>
+        <v>196027</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9701353131333966</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9234704475182669</v>
+        <v>0.9261976626931282</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9861919197807562</v>
+        <v>0.9904065919417473</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>96</v>
@@ -2013,7 +2013,7 @@
         <v>95082</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>90316</v>
+        <v>89627</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>97226</v>
@@ -2022,7 +2022,7 @@
         <v>0.9779490148921244</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.928924461120643</v>
+        <v>0.9218374311538775</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -2034,19 +2034,19 @@
         <v>287096</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>277260</v>
+        <v>278204</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>291362</v>
+        <v>291847</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9727092228608342</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9393825240026584</v>
+        <v>0.9425821815467348</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9871641768370627</v>
+        <v>0.9888071808946775</v>
       </c>
     </row>
     <row r="23">
@@ -2138,19 +2138,19 @@
         <v>15579</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9070</v>
+        <v>8954</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26469</v>
+        <v>27537</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02256291403642706</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01313552299743297</v>
+        <v>0.01296819063861532</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03833420173433658</v>
+        <v>0.03988145597210689</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -2159,19 +2159,19 @@
         <v>14328</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7236</v>
+        <v>7256</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24112</v>
+        <v>23652</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04979655523020632</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0251478819277734</v>
+        <v>0.02521838021995134</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08379868199864487</v>
+        <v>0.08220178155579326</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>25</v>
@@ -2180,19 +2180,19 @@
         <v>29907</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>19886</v>
+        <v>20248</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>44425</v>
+        <v>45117</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03057358778824634</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02032902658211087</v>
+        <v>0.02069903097855274</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04541464455686597</v>
+        <v>0.04612224287471098</v>
       </c>
     </row>
     <row r="25">
@@ -2209,19 +2209,19 @@
         <v>2793</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7602</v>
+        <v>7457</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004044458356208609</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001268042485590738</v>
+        <v>0.001266327633661513</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01101017362830814</v>
+        <v>0.01079957728147238</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2230,19 +2230,19 @@
         <v>3361</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9169</v>
+        <v>8307</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01168243998147346</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00351618705098789</v>
+        <v>0.003498379142848106</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03186756505249355</v>
+        <v>0.02886907469240194</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -2251,19 +2251,19 @@
         <v>6154</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2140</v>
+        <v>2484</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12509</v>
+        <v>12775</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006291142098827762</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002188155435101787</v>
+        <v>0.002539296186228553</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01278802100270727</v>
+        <v>0.01305988534427264</v>
       </c>
     </row>
     <row r="26">
@@ -2280,19 +2280,19 @@
         <v>8743</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3936</v>
+        <v>4036</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16716</v>
+        <v>15534</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01266273525077658</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005700854249818096</v>
+        <v>0.005844774255272678</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02421008708209576</v>
+        <v>0.02249782120149239</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7156</v>
+        <v>7183</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007092215266974527</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02486838636580882</v>
+        <v>0.02496340159747462</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -2322,19 +2322,19 @@
         <v>10784</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5621</v>
+        <v>5839</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18687</v>
+        <v>18564</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01102418762136811</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005746114244993225</v>
+        <v>0.005969489589997197</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01910316985113243</v>
+        <v>0.01897717179447368</v>
       </c>
     </row>
     <row r="27">
@@ -2351,19 +2351,19 @@
         <v>663357</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>651034</v>
+        <v>650740</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>672101</v>
+        <v>672237</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9607298923565878</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.942882914714661</v>
+        <v>0.9424561080046095</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9733929712126985</v>
+        <v>0.9735902823020773</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>253</v>
@@ -2372,19 +2372,19 @@
         <v>268006</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>256741</v>
+        <v>257243</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>276099</v>
+        <v>276184</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9314287895213457</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8922808584963461</v>
+        <v>0.8940249168712037</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9595556729352617</v>
+        <v>0.9598519512837533</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>884</v>
@@ -2393,19 +2393,19 @@
         <v>931363</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>915357</v>
+        <v>916200</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>944841</v>
+        <v>943202</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9521110824915578</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9357486259512237</v>
+        <v>0.9366105148070916</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9658893312877455</v>
+        <v>0.9642142456547032</v>
       </c>
     </row>
     <row r="28">
@@ -2737,19 +2737,19 @@
         <v>4894</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1758</v>
+        <v>1902</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10913</v>
+        <v>10776</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05417112934142206</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01945794329377584</v>
+        <v>0.0210537010088355</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1207852976827274</v>
+        <v>0.1192688217047354</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2758,19 +2758,19 @@
         <v>2728</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6491</v>
+        <v>7190</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1180202195098972</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03739992784480386</v>
+        <v>0.03791479510136482</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2808322499794154</v>
+        <v>0.3110592242008173</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -2779,19 +2779,19 @@
         <v>7622</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3615</v>
+        <v>3417</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13909</v>
+        <v>13416</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06717840783932637</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03186198933218189</v>
+        <v>0.03011855692383014</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1225847010317047</v>
+        <v>0.1182406474779037</v>
       </c>
     </row>
     <row r="5">
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5451</v>
+        <v>5997</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01234146412124208</v>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06033923483227908</v>
+        <v>0.06637596783537147</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5728</v>
+        <v>5584</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009827272290578386</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05048339381656831</v>
+        <v>0.04921678889424821</v>
       </c>
     </row>
     <row r="6">
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6160</v>
+        <v>6962</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01380384054132053</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06818127397324997</v>
+        <v>0.07705368491648962</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5539</v>
+        <v>6191</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01099173471823287</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04881788503934796</v>
+        <v>0.05456582419526455</v>
       </c>
     </row>
     <row r="7">
@@ -2934,19 +2934,19 @@
         <v>83091</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76518</v>
+        <v>76013</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87224</v>
+        <v>86840</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9196835659960153</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8469313334082954</v>
+        <v>0.8413458776294316</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9654328396124461</v>
+        <v>0.9611862711151054</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -2955,19 +2955,19 @@
         <v>20386</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16623</v>
+        <v>15924</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22250</v>
+        <v>22238</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8819797804901027</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7191677500205851</v>
+        <v>0.6889407757991827</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9626000721551962</v>
+        <v>0.9620852048986351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>102</v>
@@ -2976,19 +2976,19 @@
         <v>103477</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96685</v>
+        <v>96371</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>108550</v>
+        <v>108601</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9120025851518624</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8521439579367686</v>
+        <v>0.8493744753994288</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9567138987801462</v>
+        <v>0.9571667938611496</v>
       </c>
     </row>
     <row r="8">
@@ -3080,19 +3080,19 @@
         <v>6619</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2868</v>
+        <v>2584</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14385</v>
+        <v>14314</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02796419330058931</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01211957399976153</v>
+        <v>0.01091800808425226</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06077682795457866</v>
+        <v>0.06047567652160498</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -3101,19 +3101,19 @@
         <v>5487</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1577</v>
+        <v>1954</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12512</v>
+        <v>12256</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04736522302450149</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01361347647124207</v>
+        <v>0.01686663810786508</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.108010293891239</v>
+        <v>0.1058043763831486</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -3122,19 +3122,19 @@
         <v>12105</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6453</v>
+        <v>6946</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22058</v>
+        <v>21357</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03433942020779051</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0183044119517482</v>
+        <v>0.01970500859814026</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06257286507323785</v>
+        <v>0.06058452151655393</v>
       </c>
     </row>
     <row r="10">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7338</v>
+        <v>6631</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008852064533924293</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03100365982331239</v>
+        <v>0.02801814295776108</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6536</v>
+        <v>7295</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005943253980874135</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01854085615764411</v>
+        <v>0.02069481180724486</v>
       </c>
     </row>
     <row r="12">
@@ -3261,19 +3261,19 @@
         <v>227969</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>219345</v>
+        <v>219700</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>232619</v>
+        <v>232786</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9631837421654864</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9267440045474874</v>
+        <v>0.9282476145808087</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.982829290932778</v>
+        <v>0.9835340094438563</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>112</v>
@@ -3282,19 +3282,19 @@
         <v>110353</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>103328</v>
+        <v>103584</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>114263</v>
+        <v>113886</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9526347769754985</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8919897061087606</v>
+        <v>0.894195623616851</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.986386523528758</v>
+        <v>0.9831333618921348</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>322</v>
@@ -3303,19 +3303,19 @@
         <v>338323</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>327545</v>
+        <v>328859</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>344534</v>
+        <v>344404</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9597173258113354</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9291431663123453</v>
+        <v>0.9328701027229094</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9773352026761847</v>
+        <v>0.9769647473975298</v>
       </c>
     </row>
     <row r="13">
@@ -3407,19 +3407,19 @@
         <v>2891</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7736</v>
+        <v>7271</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01441658569820576</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004567927890514704</v>
+        <v>0.004657317481318362</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03857337792096036</v>
+        <v>0.03625690934436719</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -3428,19 +3428,19 @@
         <v>2922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7846</v>
+        <v>8059</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02479295673502457</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007640364845227471</v>
+        <v>0.007680484767433984</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06656433479224638</v>
+        <v>0.06837209524812045</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -3449,19 +3449,19 @@
         <v>5814</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2020</v>
+        <v>2712</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11425</v>
+        <v>12034</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01825778693157223</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006345236249910185</v>
+        <v>0.008517414883683372</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03588080457776222</v>
+        <v>0.03779451970778741</v>
       </c>
     </row>
     <row r="15">
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5273</v>
+        <v>5314</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.007883029383894104</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04473198602125735</v>
+        <v>0.04508136638097197</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4698</v>
+        <v>5393</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.002918197709452908</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01475488492066734</v>
+        <v>0.01693732580680496</v>
       </c>
     </row>
     <row r="16">
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8310</v>
+        <v>8002</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01215587005887974</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04143960810668717</v>
+        <v>0.0399032223066156</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6865</v>
+        <v>6862</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01655990961355759</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0582362189619858</v>
+        <v>0.05821151926490133</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -3583,19 +3583,19 @@
         <v>4390</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11621</v>
+        <v>11308</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0137861897640249</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003406487795960215</v>
+        <v>0.003394069802618595</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03649621824716597</v>
+        <v>0.03551264711724714</v>
       </c>
     </row>
     <row r="17">
@@ -3612,19 +3612,19 @@
         <v>195214</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>188767</v>
+        <v>189055</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198589</v>
+        <v>198491</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9734275442429144</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9412796336233186</v>
+        <v>0.9427139793574358</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9902540121295174</v>
+        <v>0.9897655631181255</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>111</v>
@@ -3633,19 +3633,19 @@
         <v>112070</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>105644</v>
+        <v>106257</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>115871</v>
+        <v>115911</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9507641042675238</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8962454397638305</v>
+        <v>0.9014449616489573</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9830044746680512</v>
+        <v>0.983343857488769</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>283</v>
@@ -3654,19 +3654,19 @@
         <v>307285</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>299201</v>
+        <v>299111</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>312604</v>
+        <v>312555</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.96503782559495</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9396485842253754</v>
+        <v>0.9393667696605854</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9817398063531269</v>
+        <v>0.9815869893483515</v>
       </c>
     </row>
     <row r="18">
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5839</v>
+        <v>5314</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005484765628052039</v>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03034338431148801</v>
+        <v>0.02761918743875814</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -3779,19 +3779,19 @@
         <v>3998</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9387</v>
+        <v>10071</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03498790120941291</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008635516384287551</v>
+        <v>0.008630688627779421</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08213755204375932</v>
+        <v>0.08812739237990817</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -3800,19 +3800,19 @@
         <v>5054</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1907</v>
+        <v>2014</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11169</v>
+        <v>11321</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01647798240617582</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006218278309263194</v>
+        <v>0.006566132723265097</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03641660560093661</v>
+        <v>0.03691155860648852</v>
       </c>
     </row>
     <row r="20">
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5470</v>
+        <v>5112</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.004785558246615071</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02842598087967118</v>
+        <v>0.02656901021023708</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6388</v>
+        <v>5833</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01660274997881393</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05589734070904223</v>
+        <v>0.05104502243888927</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -3918,19 +3918,19 @@
         <v>2818</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7603</v>
+        <v>7378</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.009188783458473107</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002919778453053414</v>
+        <v>0.00292200182928659</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02478968535262261</v>
+        <v>0.02405587253596628</v>
       </c>
     </row>
     <row r="22">
@@ -3947,7 +3947,7 @@
         <v>190444</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>185199</v>
+        <v>185674</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>192420</v>
@@ -3956,7 +3956,7 @@
         <v>0.9897296761253329</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9624719514201919</v>
+        <v>0.9649431075489018</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -3968,19 +3968,19 @@
         <v>108384</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102479</v>
+        <v>102109</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>112183</v>
+        <v>112047</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9484093488117732</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8967391595018552</v>
+        <v>0.8934948736638252</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9816511761979126</v>
+        <v>0.9804634225997969</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>284</v>
@@ -3989,19 +3989,19 @@
         <v>298828</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>291896</v>
+        <v>292330</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>302944</v>
+        <v>302801</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9743332341353511</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.951732513357171</v>
+        <v>0.9531476883299838</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9877537313010715</v>
+        <v>0.987287599729703</v>
       </c>
     </row>
     <row r="23">
@@ -4093,19 +4093,19 @@
         <v>15459</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9029</v>
+        <v>8652</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24610</v>
+        <v>24916</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02147155617711144</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01254042556136009</v>
+        <v>0.01201688388150848</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03418152233351046</v>
+        <v>0.03460600799849149</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -4114,19 +4114,19 @@
         <v>15136</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8518</v>
+        <v>8285</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23981</v>
+        <v>25037</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04078484117717959</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02295364968821854</v>
+        <v>0.02232445119182053</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06462110806889715</v>
+        <v>0.06746677061367889</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>30</v>
@@ -4135,19 +4135,19 @@
         <v>30595</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20644</v>
+        <v>20447</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>42981</v>
+        <v>42788</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02804044069960105</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01892062692183422</v>
+        <v>0.01873956625332608</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03939245783090471</v>
+        <v>0.0392156107685268</v>
       </c>
     </row>
     <row r="25">
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6220</v>
+        <v>6663</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001548642211853906</v>
@@ -4176,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0086392698589074</v>
+        <v>0.009253775466407271</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4939</v>
+        <v>5497</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002503865902399354</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01330791578598149</v>
+        <v>0.01481329954052229</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7019</v>
+        <v>6621</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001873535367850789</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.006432564072608599</v>
+        <v>0.006068190581464113</v>
       </c>
     </row>
     <row r="26">
@@ -4235,19 +4235,19 @@
         <v>6701</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2341</v>
+        <v>2464</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15076</v>
+        <v>14380</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009306871106859516</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003250759346658068</v>
+        <v>0.00342216037764511</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02093974303039118</v>
+        <v>0.01997222947010663</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -4256,19 +4256,19 @@
         <v>3849</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9751</v>
+        <v>8903</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01037256743198042</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002678201704657663</v>
+        <v>0.002664311752428165</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02627443916318788</v>
+        <v>0.02398951577094148</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -4277,19 +4277,19 @@
         <v>10550</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5264</v>
+        <v>5410</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18187</v>
+        <v>18931</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009669338501491554</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004824640205985623</v>
+        <v>0.004958353069407512</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01666882847892996</v>
+        <v>0.01735041849102039</v>
       </c>
     </row>
     <row r="27">
@@ -4306,19 +4306,19 @@
         <v>696719</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>686055</v>
+        <v>685520</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>705396</v>
+        <v>705471</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9676729305041751</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9528623611089035</v>
+        <v>0.9521194647652205</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.979725335235871</v>
+        <v>0.9798294165872821</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>348</v>
@@ -4327,19 +4327,19 @@
         <v>351194</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>341228</v>
+        <v>341956</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>358901</v>
+        <v>358907</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9463387254884407</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.91948518277821</v>
+        <v>0.9214464586472779</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9671056458100145</v>
+        <v>0.967122324480654</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>991</v>
@@ -4348,19 +4348,19 @@
         <v>1047913</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1034016</v>
+        <v>1035009</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1059135</v>
+        <v>1059876</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9604166854310566</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.947680524106963</v>
+        <v>0.9485907300687869</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9707024795278002</v>
+        <v>0.9713815377007544</v>
       </c>
     </row>
     <row r="28">
